--- a/src/HBB-did-url-spec-Low-level-Use Cases 0.4.xlsx
+++ b/src/HBB-did-url-spec-Low-level-Use Cases 0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INDY\did-url-spec\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A3E21-26E4-4EB2-89A5-33681EA21CC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE54A4C-32B8-4CB2-97E6-543E95A110B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{55C97778-1C7A-4748-8CBF-F07099F47EAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{55C97778-1C7A-4748-8CBF-F07099F47EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Tables" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>did:xyz:1234</t>
   </si>
@@ -103,9 +103,6 @@
     <t>HTTP Binding Example</t>
   </si>
   <si>
-    <t>Resolution to return an entire DID Doc</t>
-  </si>
-  <si>
     <t>A. DID Document Resolution and Dereferencing Use Cases</t>
   </si>
   <si>
@@ -178,28 +175,7 @@
     <t>D. DID Document Collection Operations Use Cases</t>
   </si>
   <si>
-    <t>Does this DID Doc exist/is resolvable by this DID Resolver</t>
-  </si>
-  <si>
-    <t>Does this DID Doc fragment exist/is resolvable by this DID Resolver</t>
-  </si>
-  <si>
     <t>4a</t>
-  </si>
-  <si>
-    <t>Return all of the DID Docs available to the DID Resolver</t>
-  </si>
-  <si>
-    <t>Return all of the DID Docs available to the DID Resolver for a particular DID method</t>
-  </si>
-  <si>
-    <t>Return a batch of DID Docs available to the DID Resolver for a particular DID method</t>
-  </si>
-  <si>
-    <t>Return a filtered batch of DID Docs available to the DID Resolver for a particular DID method</t>
-  </si>
-  <si>
-    <t>Return a filtered batch of DID Docs that only contain a selected subset of the DID Doc's components (fragments/attributes) for a particular DID method available from a particular DID Resolver</t>
   </si>
   <si>
     <t>E. DID Resolver Service Operations Use Cases</t>
@@ -534,51 +510,12 @@
     <t>did:xyz:!$documents&amp;$top=10&amp;$skip=100</t>
   </si>
   <si>
-    <t>http://uniresolver.io/did:xyz:!documents&amp;$top=10&amp;$skip=100</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:!documents$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
-  </si>
-  <si>
-    <t>did:xyz:!&amp;documents&amp;$top=10&amp;$skip=100&amp;$select="&lt;selectexpression&gt;"</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:!&amp;documents&amp;$top=10&amp;$skip=100&amp;$select="&lt;selectexpression&gt;"</t>
-  </si>
-  <si>
     <t>did:!$documents</t>
   </si>
   <si>
     <t>http://uniresolver.io/did:!$documents</t>
   </si>
   <si>
-    <t>did:xyz:!documents&amp;$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
-  </si>
-  <si>
-    <t>&lt;did&gt;!$type=“diddoc” (default type – UC #1)</t>
-  </si>
-  <si>
-    <t>&lt;did&gt;!$type=“schema”</t>
-  </si>
-  <si>
-    <t>&lt;did&gt;!$type=“creddef”</t>
-  </si>
-  <si>
-    <t>&lt;did&gt;!$type=“overlay.format”</t>
-  </si>
-  <si>
-    <t>&lt;did&gt;!$type=“node”</t>
-  </si>
-  <si>
-    <t>did:!$type=“config.pool”</t>
-  </si>
-  <si>
-    <t>did:!$type=“perfmon.pool”</t>
-  </si>
-  <si>
-    <t>did:xyz:!$type=“perfmon.didmethod”</t>
-  </si>
-  <si>
     <t>DID Document</t>
   </si>
   <si>
@@ -603,7 +540,76 @@
     <t>DID Method Perf. Monitoring Doc</t>
   </si>
   <si>
-    <t>L. Retrieve Different Document Types from the Verified Data Registry (VDR)</t>
+    <t>did:xyz:!$documents&amp;$top=10&amp;$skip=100&amp;$select="&lt;selectexpression&gt;"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!$documents$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!$documents&amp;$top=10&amp;$skip=100&amp;$select="&lt;selectexpression&gt;"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!$documents&amp;$top=10&amp;$skip=100</t>
+  </si>
+  <si>
+    <t>did:xyz:!$documents&amp;$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
+  </si>
+  <si>
+    <t>&lt;did&gt;!$type="diddoc" (default type – UC #1)</t>
+  </si>
+  <si>
+    <t>&lt;did&gt;!$type="schema"</t>
+  </si>
+  <si>
+    <t>&lt;did&gt;!$type="creddef"</t>
+  </si>
+  <si>
+    <t>&lt;did&gt;!$type="overlay.format"</t>
+  </si>
+  <si>
+    <t>&lt;did&gt;!$type="node"</t>
+  </si>
+  <si>
+    <t>did:!$type="config.pool"</t>
+  </si>
+  <si>
+    <t>did:!$type="perfmon.pool"</t>
+  </si>
+  <si>
+    <t>did:xyz:!$type="perfmon.didmethod"</t>
+  </si>
+  <si>
+    <t>Return all of the DID Docs available to the DID Resolver. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>Does this DID Doc exist/is resolvable by this DID Resolver. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>Does this DID Doc fragment exist/is resolvable by this DID Resolver. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>Return all of the DID Docs available to the DID Resolver for a particular DID method. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>Return a batch of DID Docs available to the DID Resolver for a particular DID method. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>Return a filtered batch of DID Docs available to the DID Resolver for a particular DID method. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>Return a filtered batch of DID Docs that only contain a selected subset of the DID Doc's components (fragments/attributes) for a particular DID method available from a particular DID Resolver. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>Resolution to return an entire DID Doc. Defaults: $type="diddoc"</t>
+  </si>
+  <si>
+    <t>&lt;did&gt;!$type="any"</t>
+  </si>
+  <si>
+    <t>Any of the above document types</t>
+  </si>
+  <si>
+    <t>L. Retrieve Different Document Types from the Verifiable Data Registry (VDR)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -757,9 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1087,22 +1090,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA45131C-D45A-4CCB-AB34-792AD348A4B4}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:C71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="87.6640625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="87.7109375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1116,26 +1119,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
@@ -1144,674 +1147,685 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>5</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>11</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="21"/>
+      <c r="B31" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="20"/>
       <c r="D31" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="C39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="C53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="20"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="19"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="18"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>20</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>22</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>24</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>26</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>28</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>136</v>
       </c>
     </row>
